--- a/data/trans_dic/P25_1-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25_1-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina</t>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>15,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>16,91%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,86; 30,96</t>
+          <t>14,74; 31,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,91; 20,92</t>
+          <t>12,58; 22,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,78; 18,96</t>
+          <t>10,91; 19,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,84; 24,02</t>
+          <t>8,35; 22,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,41; 30,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 19,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,71; 21,69</t>
+          <t>12,1; 25,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,15; 25,01</t>
+          <t>9,88; 18,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>19,33; 28,76</t>
+          <t>14,45; 23,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,26; 19,13</t>
+          <t>17,04; 31,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>13,0; 19,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,4; 23,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>15,34; 25,21</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,2; 18,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>14,16; 20,29</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>15,46; 26,38</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,09</t>
+          <t>4,14; 9,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,9</t>
+          <t>2,79; 6,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,97; 7,57</t>
+          <t>4,03; 7,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 12,93</t>
+          <t>5,35; 10,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,15</t>
+          <t>2,59; 7,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,55</t>
+          <t>3,19; 7,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 7,03</t>
+          <t>3,65; 7,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,74</t>
+          <t>2,97; 8,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,89; 7,31</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,4; 5,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4,34; 6,92</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 8,78</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,95</t>
+          <t>1,74; 6,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,82</t>
+          <t>2,98; 7,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 6,37</t>
+          <t>2,75; 6,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 13,78</t>
+          <t>2,9; 8,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,89</t>
+          <t>0,89; 3,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,5</t>
+          <t>0,66; 3,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,31; 6,35</t>
+          <t>1,41; 3,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,22</t>
+          <t>1,33; 5,28</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,51</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,61; 4,25</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 4,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 4,55</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 5,88</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>11,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,83%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>10,21%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,1</t>
+          <t>6,21; 12,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,74; 8,38</t>
+          <t>4,57; 10,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,33; 13,75</t>
+          <t>7,29; 14,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 10,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,21</t>
+          <t>9,13; 15,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 11,29</t>
+          <t>6,63; 13,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 10,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 7,78</t>
+          <t>7,14; 14,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>8,33; 12,52</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>6,45; 10,79</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>7,91; 13,16</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,32%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,67%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 10,46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,79; 8,53</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 8,65</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,25; 10,81</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 10,22</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,49; 8,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,43; 9,13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,67; 11,54</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>7,27; 9,71</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 7,83</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 8,35</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>7,93; 10,4</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece diabetes/azúcar alta en sangre/azúcar en orina (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>76237</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>92347</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>108539</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65365</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>75778</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>86919</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>166578</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>154521</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>152015</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>179266</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>275117</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>219886</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>50005; 105494</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>66730; 119625</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79466; 142871</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>37133; 98177</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>50741; 108635</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>62684; 117539</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>129874; 206992</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>109984; 202102</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>116352; 191217</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>142044; 219098</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>230383; 330115</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>168552; 287531</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>59091</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>51093</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>91510</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>83682</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45012</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60809</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>78645</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>56181</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>104102</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>111902</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>170155</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>139863</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38631; 88951</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33697; 74790</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>65354; 120812</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>57108; 114584</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25887; 75533</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>39390; 89074</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>54992; 110494</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>32145; 90429</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>74997; 141121</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>82868; 145630</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>135963; 216546</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>105236; 188840</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24812</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>39706</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46283</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43098</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14831</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14984</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>28544</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>25227</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>39644</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>54690</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>74827</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>68325</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12429; 43001</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>25159; 62031</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>29966; 66757</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24076; 71239</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6799; 30092</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6231; 31801</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16420; 44436</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11968; 47390</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23842; 62971</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>35876; 79106</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>53666; 102484</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>43282; 101490</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>126306</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61569</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>110747</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>167351</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>75480</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>101403</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>293657</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>137049</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>212150</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>90498; 177781</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>39326; 88993</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>79864; 154010</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>127524; 212057</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>50616; 103530</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>70140; 146933</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>237862; 357269</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>104666; 175136</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>164314; 273439</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>286445</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>244715</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>246332</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>302890</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>302972</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>238192</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>273766</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>337333</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>589418</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>482907</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>520099</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>640224</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>232821; 360406</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>199418; 293625</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>202914; 297704</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>249100; 371458</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>252593; 366071</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>196261; 285853</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>229445; 325951</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>276768; 416240</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>510669; 681949</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>422787; 549358</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>453056; 585596</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>559065; 733077</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
